--- a/FATGUI-master/Annotation_Fields.xlsx
+++ b/FATGUI-master/Annotation_Fields.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MShad/Desktop/JesseGUI/MCC_GUI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse Marshall\Documents\GitHub\Movement_analysis\FATGUI-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39680" yWindow="680" windowWidth="28800" windowHeight="26460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
   <si>
     <t>Unannotated</t>
   </si>
@@ -276,12 +276,57 @@
   </si>
   <si>
     <t>GlobalBehavior</t>
+  </si>
+  <si>
+    <t>Prone</t>
+  </si>
+  <si>
+    <t>RTurnRear</t>
+  </si>
+  <si>
+    <t>LTurnRear</t>
+  </si>
+  <si>
+    <t>Swap</t>
+  </si>
+  <si>
+    <t>Sniff</t>
+  </si>
+  <si>
+    <t>StillProne</t>
+  </si>
+  <si>
+    <t>Anogenitalgroom</t>
+  </si>
+  <si>
+    <t>Transition</t>
+  </si>
+  <si>
+    <t>RearExplore</t>
+  </si>
+  <si>
+    <t>FSpineSwap</t>
+  </si>
+  <si>
+    <t>LElbowSwap</t>
+  </si>
+  <si>
+    <t>RElbowSwap</t>
+  </si>
+  <si>
+    <t>LKneeSwap</t>
+  </si>
+  <si>
+    <t>RKneeSwap</t>
+  </si>
+  <si>
+    <t>HeadSwap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -293,11 +338,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,6 +381,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -602,18 +652,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -636,7 +686,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -682,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -705,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -728,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -751,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -774,7 +824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -797,7 +847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -820,7 +870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -843,7 +893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -866,7 +916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -889,7 +939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -905,8 +955,14 @@
       <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -925,7 +981,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -935,12 +991,21 @@
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>51</v>
@@ -950,7 +1015,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -963,7 +1028,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -976,7 +1041,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -989,7 +1054,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -1002,17 +1067,20 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
@@ -1023,7 +1091,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -1034,7 +1102,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -1045,7 +1113,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1056,7 +1124,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -1067,7 +1135,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
@@ -1078,7 +1146,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
@@ -1089,7 +1157,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
@@ -1100,7 +1168,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -1111,7 +1179,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1122,7 +1190,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -1133,7 +1201,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
@@ -1144,7 +1212,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -1155,7 +1223,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -1166,7 +1234,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -1177,7 +1245,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1188,7 +1256,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -1199,7 +1267,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>73</v>
       </c>
@@ -1210,7 +1278,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -1221,7 +1289,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
@@ -1232,6 +1300,51 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FATGUI-master/Annotation_Fields.xlsx
+++ b/FATGUI-master/Annotation_Fields.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t>Unannotated</t>
   </si>
@@ -321,6 +321,24 @@
   </si>
   <si>
     <t>HeadSwap</t>
+  </si>
+  <si>
+    <t>StillMicro</t>
+  </si>
+  <si>
+    <t>FaceWipe</t>
+  </si>
+  <si>
+    <t>AdjustSteps</t>
+  </si>
+  <si>
+    <t>Rturn</t>
+  </si>
+  <si>
+    <t>Lturn</t>
+  </si>
+  <si>
+    <t>HeadTuck</t>
   </si>
 </sst>
 </file>
@@ -652,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1037,6 @@
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1085,7 +1102,9 @@
         <v>59</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1096,7 +1115,9 @@
         <v>60</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1345,6 +1366,26 @@
         <v>92</v>
       </c>
     </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
